--- a/sample.xlsx
+++ b/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="Заявка на прием груза" sheetId="1" r:id="rId1"/>
+    <sheet name="Заявка на выдачу груза" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -50,7 +50,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FF00921C"/>
       </patternFill>
     </fill>
     <fill>
@@ -104,28 +104,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="59.54157303370786"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="20"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.134831460674157"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="40"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>ЗАЯВКА НА ПРИМЕМ ГРУЗА</t>
+          <t>ЗАЯВКА НА ВЫДАЧУ ГРУЗА</t>
         </is>
       </c>
     </row>
@@ -160,32 +160,52 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Кому выдать</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>Данные об авто</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
           <t>Примечания</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>2013-03-25</t>
+          <t>2013-03-29</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>2013-03-25</t>
+          <t>2013-03-31</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>20:19:00</t>
+          <t>14:32:00</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Выдайте, пожалуйста, Игорю в красной кепке</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Трейлер международного образца</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Особых примечаний нет, сделайте все четко, пожалуйста.</t>
         </is>
       </c>
     </row>
@@ -218,44 +238,29 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>В коробке</t>
+          <t>Кол. коробок</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Кол. коробок</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Вес коробки</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Объем коробки</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Доп. услуги</t>
+          <t>Доп. информация</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>sdfsdf</t>
+          <t>Йогурт</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>YO-876876</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>23423-23453245-2345345</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -263,24 +268,56 @@
           <t>shtuk</t>
         </is>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="n">
+        <v>23</v>
+      </c>
       <c r="F8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t/>
+        <v>324</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>Ничего не трогайте!</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Ноутбуки</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>NO-234786876</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>736234-765234-765324</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>butil</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>345</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>234</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>Не включать!</t>
         </is>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
